--- a/raw_data/20200818_saline/20200818_Sensor0_Test_65.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_65.xlsx
@@ -1,1309 +1,1725 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05278D6-4A68-45AD-B6A4-522D416E4834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>57602.947287</v>
+        <v>57602.947287000003</v>
       </c>
       <c r="B2" s="1">
         <v>16.000819</v>
       </c>
       <c r="C2" s="1">
-        <v>905.577000</v>
+        <v>905.577</v>
       </c>
       <c r="D2" s="1">
-        <v>-192.457000</v>
+        <v>-192.45699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>57613.080564</v>
+        <v>57613.080564000004</v>
       </c>
       <c r="G2" s="1">
-        <v>16.003633</v>
+        <v>16.003633000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>921.581000</v>
+        <v>921.58100000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.037000</v>
+        <v>-163.03700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>57623.230665</v>
+        <v>57623.230665000003</v>
       </c>
       <c r="L2" s="1">
         <v>16.006453</v>
       </c>
       <c r="M2" s="1">
-        <v>942.958000</v>
+        <v>942.95799999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.126000</v>
+        <v>-117.126</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>57633.758285</v>
+        <v>57633.758285000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.009377</v>
+        <v>16.009377000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>949.352000</v>
+        <v>949.35199999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.211000</v>
+        <v>-102.211</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>57644.324524</v>
+        <v>57644.324524000003</v>
       </c>
       <c r="V2" s="1">
-        <v>16.012312</v>
+        <v>16.012312000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>955.646000</v>
+        <v>955.64599999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.966500</v>
+        <v>-88.966499999999996</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>57654.783663</v>
+        <v>57654.783663000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.015218</v>
+        <v>16.015218000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.803000</v>
+        <v>962.803</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.855900</v>
+        <v>-79.855900000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>57665.329104</v>
+        <v>57665.329103999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.018147</v>
+        <v>16.018146999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.769000</v>
+        <v>967.76900000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.632200</v>
+        <v>-79.632199999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>57675.769427</v>
+        <v>57675.769426999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.021047</v>
+        <v>16.021046999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.682000</v>
+        <v>975.68200000000002</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.665500</v>
+        <v>-87.665499999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>57686.682409</v>
+        <v>57686.682409000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.024078</v>
+        <v>16.024077999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.918000</v>
+        <v>984.91800000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.814000</v>
+        <v>-102.81399999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>57697.975813</v>
+        <v>57697.975812999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.027216</v>
+        <v>16.027215999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.341000</v>
+        <v>996.34100000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.603000</v>
+        <v>-124.60299999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>57709.045992</v>
+        <v>57709.045991999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.030291</v>
+        <v>16.030290999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.533000</v>
+        <v>-143.53299999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>57720.414824</v>
+        <v>57720.414823999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.033449</v>
+        <v>16.033449000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.024000</v>
+        <v>-229.024</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>57731.051499</v>
+        <v>57731.051499000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>16.036403</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.340000</v>
+        <v>1132.3399999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.633000</v>
+        <v>-365.63299999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>57742.624156</v>
+        <v>57742.624155999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.039618</v>
+        <v>16.039618000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1265.300000</v>
+        <v>1265.3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.578000</v>
+        <v>-575.57799999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>57753.293598</v>
+        <v>57753.293597999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.042582</v>
+        <v>16.042581999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.950000</v>
+        <v>1413.95</v>
       </c>
       <c r="BV2" s="1">
-        <v>-798.782000</v>
+        <v>-798.78200000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>57764.127751</v>
       </c>
       <c r="BY2" s="1">
-        <v>16.045591</v>
+        <v>16.045591000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1576.730000</v>
+        <v>1576.73</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1032.080000</v>
+        <v>-1032.08</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>57775.393343</v>
+        <v>57775.393343000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.048720</v>
+        <v>16.048719999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1986.440000</v>
+        <v>1986.44</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1575.660000</v>
+        <v>-1575.66</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>57603.352003</v>
       </c>
       <c r="B3" s="1">
-        <v>16.000931</v>
+        <v>16.000931000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>905.502000</v>
+        <v>905.50199999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-192.616000</v>
+        <v>-192.61600000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>57613.454022</v>
+        <v>57613.454021999998</v>
       </c>
       <c r="G3" s="1">
-        <v>16.003737</v>
+        <v>16.003737000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>921.751000</v>
+        <v>921.75099999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-163.079000</v>
+        <v>-163.07900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>57623.655240</v>
+        <v>57623.65524</v>
       </c>
       <c r="L3" s="1">
-        <v>16.006571</v>
+        <v>16.006571000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>942.974000</v>
+        <v>942.97400000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.046000</v>
+        <v>-117.04600000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>57634.175882</v>
+        <v>57634.175882000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.009493</v>
+        <v>16.009492999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>949.401000</v>
+        <v>949.40099999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.214000</v>
+        <v>-102.214</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>57644.725328</v>
       </c>
       <c r="V3" s="1">
-        <v>16.012424</v>
+        <v>16.012423999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>955.708000</v>
+        <v>955.70799999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.908600</v>
+        <v>-88.908600000000007</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>57655.147758</v>
+        <v>57655.147757999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.015319</v>
+        <v>16.015319000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.737000</v>
+        <v>962.73699999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.867800</v>
+        <v>-79.867800000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>57665.703585</v>
+        <v>57665.703585000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.018251</v>
+        <v>16.018250999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.633000</v>
+        <v>967.63300000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.689600</v>
+        <v>-79.689599999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>57676.154786</v>
+        <v>57676.154785999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.021154</v>
+        <v>16.021153999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.710000</v>
+        <v>975.71</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.665500</v>
+        <v>-87.665499999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>57687.421907</v>
+        <v>57687.421907000004</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.024284</v>
+        <v>16.024284000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.909000</v>
+        <v>984.90899999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.830000</v>
+        <v>-102.83</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>57698.393413</v>
+        <v>57698.393412999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.027332</v>
+        <v>16.027332000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.331000</v>
+        <v>996.33100000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.617000</v>
+        <v>-124.617</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>57709.444280</v>
+        <v>57709.444280000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.030401</v>
+        <v>16.030401000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.527000</v>
+        <v>-143.52699999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>57720.780841</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.033550</v>
+        <v>16.033550000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.810000</v>
+        <v>1051.81</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.025000</v>
+        <v>-229.02500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>57731.758830</v>
+        <v>57731.758829999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.036600</v>
+        <v>16.0366</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.598000</v>
+        <v>-365.59800000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>57743.364187</v>
+        <v>57743.364186999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.039823</v>
+        <v>16.039822999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1265.320000</v>
+        <v>1265.32</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.592000</v>
+        <v>-575.59199999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>57753.430492</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.042620</v>
+        <v>16.042619999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1414.000000</v>
+        <v>1414</v>
       </c>
       <c r="BV3" s="1">
-        <v>-798.826000</v>
+        <v>-798.82600000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>57764.621757</v>
+        <v>57764.621757000001</v>
       </c>
       <c r="BY3" s="1">
         <v>16.045728</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1576.720000</v>
+        <v>1576.72</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1031.830000</v>
+        <v>-1031.83</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>57775.989043</v>
+        <v>57775.989043000001</v>
       </c>
       <c r="CD3" s="1">
         <v>16.048886</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.170000</v>
+        <v>1985.17</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1574.030000</v>
+        <v>-1574.03</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>57603.770162</v>
+        <v>57603.770162000001</v>
       </c>
       <c r="B4" s="1">
         <v>16.001047</v>
       </c>
       <c r="C4" s="1">
-        <v>905.617000</v>
+        <v>905.61699999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>-192.617000</v>
+        <v>-192.61699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>57613.902405</v>
+        <v>57613.902405000001</v>
       </c>
       <c r="G4" s="1">
-        <v>16.003862</v>
+        <v>16.003862000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>921.946000</v>
+        <v>921.94600000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.244000</v>
+        <v>-163.244</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>57623.992055</v>
+        <v>57623.992055000002</v>
       </c>
       <c r="L4" s="1">
-        <v>16.006664</v>
+        <v>16.006664000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>942.970000</v>
+        <v>942.97</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.098000</v>
+        <v>-117.098</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>57634.520106</v>
+        <v>57634.520106000004</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.009589</v>
+        <v>16.009588999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>949.366000</v>
+        <v>949.36599999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.255000</v>
+        <v>-102.255</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>57645.068539</v>
       </c>
       <c r="V4" s="1">
-        <v>16.012519</v>
+        <v>16.012519000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>955.646000</v>
+        <v>955.64599999999996</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.907500</v>
+        <v>-88.907499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>57655.496942</v>
+        <v>57655.496941999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.015416</v>
+        <v>16.015415999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.804000</v>
+        <v>962.80399999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.900400</v>
+        <v>-79.900400000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>57666.389055</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.018441</v>
+        <v>16.018440999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.839000</v>
+        <v>967.83900000000006</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.641000</v>
+        <v>-79.641000000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>57676.851202</v>
+        <v>57676.851201999998</v>
       </c>
       <c r="AK4" s="1">
         <v>16.021348</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.689000</v>
+        <v>975.68899999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.684900</v>
+        <v>-87.684899999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>57687.782010</v>
+        <v>57687.782010000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.024384</v>
+        <v>16.024384000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.902000</v>
+        <v>984.90200000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.833000</v>
+        <v>-102.833</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>57698.757477</v>
+        <v>57698.757476999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.027433</v>
+        <v>16.027432999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.330000</v>
+        <v>996.33</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.592000</v>
+        <v>-124.592</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>57709.805171</v>
       </c>
       <c r="AZ4" s="1">
-        <v>16.030501</v>
+        <v>16.030501000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.528000</v>
+        <v>-143.52799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>57721.452920</v>
+        <v>57721.452920000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.033737</v>
+        <v>16.033736999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.021000</v>
+        <v>-229.02099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>57732.226025</v>
+        <v>57732.226025000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.036729</v>
+        <v>16.036729000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.250000</v>
+        <v>1132.25</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.594000</v>
+        <v>-365.59399999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>57743.477273</v>
+        <v>57743.477272999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.039855</v>
+        <v>16.039854999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.667000</v>
+        <v>-575.66700000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>57753.845180</v>
+        <v>57753.845179999997</v>
       </c>
       <c r="BT4" s="1">
         <v>16.042735</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.970000</v>
+        <v>1413.97</v>
       </c>
       <c r="BV4" s="1">
-        <v>-798.810000</v>
+        <v>-798.81</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>57765.054236</v>
+        <v>57765.054236000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.045848</v>
+        <v>16.045847999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1576.700000</v>
+        <v>1576.7</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1031.950000</v>
+        <v>-1031.95</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>57776.527694</v>
+        <v>57776.527693999997</v>
       </c>
       <c r="CD4" s="1">
         <v>16.049035</v>
       </c>
       <c r="CE4" s="1">
-        <v>1985.690000</v>
+        <v>1985.69</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1576.020000</v>
+        <v>-1576.02</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>57604.051858</v>
+        <v>57604.051857999999</v>
       </c>
       <c r="B5" s="1">
-        <v>16.001126</v>
+        <v>16.001125999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>905.595000</v>
+        <v>905.59500000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-192.618000</v>
+        <v>-192.61799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>57614.176237</v>
       </c>
       <c r="G5" s="1">
-        <v>16.003938</v>
+        <v>16.003938000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>921.515000</v>
+        <v>921.51499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-163.007000</v>
+        <v>-163.00700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>57624.336246</v>
+        <v>57624.336245999999</v>
       </c>
       <c r="L5" s="1">
-        <v>16.006760</v>
+        <v>16.00676</v>
       </c>
       <c r="M5" s="1">
-        <v>942.984000</v>
+        <v>942.98400000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.015000</v>
+        <v>-117.015</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>57634.867802</v>
+        <v>57634.867802000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.009686</v>
+        <v>16.009685999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>949.315000</v>
+        <v>949.31500000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.294000</v>
+        <v>-102.294</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>57645.413772</v>
@@ -1312,662 +1728,662 @@
         <v>16.012615</v>
       </c>
       <c r="W5" s="1">
-        <v>955.626000</v>
+        <v>955.62599999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.986400</v>
+        <v>-88.986400000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>57656.188871</v>
+        <v>57656.188870999998</v>
       </c>
       <c r="AA5" s="1">
         <v>16.015608</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.798000</v>
+        <v>962.798</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.836400</v>
+        <v>-79.836399999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>57666.732287</v>
+        <v>57666.732286999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.018537</v>
+        <v>16.018536999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.683000</v>
+        <v>967.68299999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.468400</v>
+        <v>-79.468400000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>57677.199858</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.021444</v>
+        <v>16.021443999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.687000</v>
+        <v>975.68700000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.647100</v>
+        <v>-87.647099999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>57688.145106</v>
+        <v>57688.145106000004</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.024485</v>
+        <v>16.024484999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.908000</v>
+        <v>984.90800000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.834000</v>
+        <v>-102.834</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>57699.436003</v>
+        <v>57699.436003000003</v>
       </c>
       <c r="AU5" s="1">
         <v>16.027621</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.342000</v>
+        <v>996.34199999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.609000</v>
+        <v>-124.60899999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>57710.474965</v>
+        <v>57710.474965000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>16.030687</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.531000</v>
+        <v>-143.53100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>57721.890390</v>
+        <v>57721.89039</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.033858</v>
+        <v>16.033857999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.020000</v>
+        <v>-229.02</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>57732.600503</v>
+        <v>57732.600503000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.036833</v>
+        <v>16.036833000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.350000</v>
+        <v>1132.3499999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.575000</v>
+        <v>-365.57499999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>57743.867130</v>
+        <v>57743.867129999999</v>
       </c>
       <c r="BO5" s="1">
         <v>16.039963</v>
       </c>
       <c r="BP5" s="1">
-        <v>1265.310000</v>
+        <v>1265.31</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.635000</v>
+        <v>-575.63499999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>57754.274187</v>
+        <v>57754.274187000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.042854</v>
+        <v>16.042853999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1414.030000</v>
+        <v>1414.03</v>
       </c>
       <c r="BV5" s="1">
-        <v>-798.816000</v>
+        <v>-798.81600000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>57765.478316</v>
+        <v>57765.478316000001</v>
       </c>
       <c r="BY5" s="1">
         <v>16.045966</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1576.800000</v>
+        <v>1576.8</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1031.940000</v>
+        <v>-1031.94</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>57777.068829</v>
+        <v>57777.068829000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.049186</v>
+        <v>16.049185999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1986.330000</v>
+        <v>1986.33</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1574.230000</v>
+        <v>-1574.23</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>57604.393601</v>
+        <v>57604.393601000003</v>
       </c>
       <c r="B6" s="1">
-        <v>16.001220</v>
+        <v>16.00122</v>
       </c>
       <c r="C6" s="1">
-        <v>905.435000</v>
+        <v>905.43499999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-192.700000</v>
+        <v>-192.7</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>57614.522901</v>
+        <v>57614.522900999997</v>
       </c>
       <c r="G6" s="1">
-        <v>16.004034</v>
+        <v>16.004034000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>921.778000</v>
+        <v>921.77800000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-162.962000</v>
+        <v>-162.96199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>57624.680502</v>
+        <v>57624.680502000003</v>
       </c>
       <c r="L6" s="1">
-        <v>16.006856</v>
+        <v>16.006855999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>942.899000</v>
+        <v>942.899</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.041000</v>
+        <v>-117.041</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>57635.567690</v>
+        <v>57635.567690000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.009880</v>
+        <v>16.009879999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>949.303000</v>
+        <v>949.303</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>57646.099248</v>
+        <v>57646.099247999999</v>
       </c>
       <c r="V6" s="1">
         <v>16.012805</v>
       </c>
       <c r="W6" s="1">
-        <v>955.583000</v>
+        <v>955.58299999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.926600</v>
+        <v>-88.926599999999993</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>57656.539037</v>
+        <v>57656.539037000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.015705</v>
+        <v>16.015705000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.813000</v>
+        <v>962.81299999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.845300</v>
+        <v>-79.845299999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>57667.083454</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.018634</v>
+        <v>16.018633999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.707000</v>
+        <v>967.70699999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.749800</v>
+        <v>-79.749799999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>57677.550560</v>
+        <v>57677.550560000003</v>
       </c>
       <c r="AK6" s="1">
         <v>16.021542</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.712000</v>
+        <v>975.71199999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.672000</v>
+        <v>-87.671999999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>57688.821123</v>
+        <v>57688.821123000002</v>
       </c>
       <c r="AP6" s="1">
         <v>16.024673</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.904000</v>
+        <v>984.904</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.815000</v>
+        <v>-102.815</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>57699.878932</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.027744</v>
+        <v>16.027743999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.359000</v>
+        <v>996.35900000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.615000</v>
+        <v>-124.61499999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>57710.884164</v>
+        <v>57710.884164000003</v>
       </c>
       <c r="AZ6" s="1">
         <v>16.030801</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.529000</v>
+        <v>-143.529</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>57722.253957</v>
+        <v>57722.253957000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.033959</v>
+        <v>16.033958999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.011000</v>
+        <v>-229.011</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>57732.980970</v>
+        <v>57732.980969999997</v>
       </c>
       <c r="BJ6" s="1">
         <v>16.036939</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.575000</v>
+        <v>-365.57499999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>57744.288233</v>
+        <v>57744.288232999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.040080</v>
+        <v>16.04008</v>
       </c>
       <c r="BP6" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.640000</v>
+        <v>-575.64</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>57754.703228</v>
+        <v>57754.703227999998</v>
       </c>
       <c r="BT6" s="1">
         <v>16.042973</v>
       </c>
       <c r="BU6" s="1">
-        <v>1414.070000</v>
+        <v>1414.07</v>
       </c>
       <c r="BV6" s="1">
-        <v>-798.792000</v>
+        <v>-798.79200000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>57765.897436</v>
+        <v>57765.897435999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.046083</v>
+        <v>16.046082999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1576.760000</v>
+        <v>1576.76</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1031.830000</v>
+        <v>-1031.83</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>57777.608974</v>
+        <v>57777.608974000002</v>
       </c>
       <c r="CD6" s="1">
         <v>16.049336</v>
       </c>
       <c r="CE6" s="1">
-        <v>1984.810000</v>
+        <v>1984.81</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1575.200000</v>
+        <v>-1575.2</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>57604.733858</v>
       </c>
       <c r="B7" s="1">
-        <v>16.001315</v>
+        <v>16.001315000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>905.419000</v>
+        <v>905.41899999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-192.776000</v>
+        <v>-192.77600000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>57615.209891</v>
+        <v>57615.209890999999</v>
       </c>
       <c r="G7" s="1">
-        <v>16.004225</v>
+        <v>16.004225000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>921.969000</v>
+        <v>921.96900000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-162.995000</v>
+        <v>-162.995</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>57625.361973</v>
+        <v>57625.361972999999</v>
       </c>
       <c r="L7" s="1">
-        <v>16.007045</v>
+        <v>16.007045000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>942.985000</v>
+        <v>942.98500000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.106000</v>
+        <v>-117.10599999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>57635.918856</v>
+        <v>57635.918855999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.009977</v>
+        <v>16.009976999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>949.302000</v>
+        <v>949.30200000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.182000</v>
+        <v>-102.182</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>57646.444166</v>
+        <v>57646.444166000001</v>
       </c>
       <c r="V7" s="1">
-        <v>16.012901</v>
+        <v>16.012900999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.550000</v>
+        <v>955.55</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.917000</v>
+        <v>-88.917000000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>57656.889181</v>
+        <v>57656.889180999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.015803</v>
+        <v>16.015802999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.814000</v>
+        <v>962.81399999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.798400</v>
+        <v>-79.798400000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>57667.732755</v>
+        <v>57667.732754999997</v>
       </c>
       <c r="AF7" s="1">
         <v>16.018815</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.753000</v>
+        <v>967.75300000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.568600</v>
+        <v>-79.568600000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>57678.210207</v>
+        <v>57678.210206999996</v>
       </c>
       <c r="AK7" s="1">
         <v>16.021725</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.730000</v>
+        <v>975.73</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.650600</v>
+        <v>-87.650599999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>57689.225362</v>
+        <v>57689.225361999997</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.024785</v>
+        <v>16.024785000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.904000</v>
+        <v>984.904</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.832000</v>
+        <v>-102.83199999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>57700.243492</v>
+        <v>57700.243492000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.027845</v>
+        <v>16.027844999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.341000</v>
+        <v>996.34100000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.600000</v>
+        <v>-124.6</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>57711.258655</v>
+        <v>57711.258654999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.030905</v>
+        <v>16.030905000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.537000</v>
+        <v>-143.53700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>57722.613062</v>
+        <v>57722.613061999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.034059</v>
+        <v>16.034058999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.018000</v>
+        <v>-229.018</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>57733.406999</v>
+        <v>57733.406998999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.037057</v>
+        <v>16.037057000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.595000</v>
+        <v>-365.59500000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>57744.720781</v>
+        <v>57744.720781000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.040200</v>
+        <v>16.040199999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1265.290000</v>
+        <v>1265.29</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.644000</v>
+        <v>-575.64400000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>57755.112427</v>
@@ -1976,392 +2392,392 @@
         <v>16.043087</v>
       </c>
       <c r="BU7" s="1">
-        <v>1414.080000</v>
+        <v>1414.08</v>
       </c>
       <c r="BV7" s="1">
-        <v>-798.787000</v>
+        <v>-798.78700000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>57766.321515</v>
+        <v>57766.321515000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.046200</v>
+        <v>16.046199999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1576.650000</v>
+        <v>1576.65</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1031.970000</v>
+        <v>-1031.97</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>57778.146636</v>
+        <v>57778.146635999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.049485</v>
+        <v>16.049485000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1986.560000</v>
+        <v>1986.56</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1575.730000</v>
+        <v>-1575.73</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>57605.418335</v>
+        <v>57605.418335000002</v>
       </c>
       <c r="B8" s="1">
-        <v>16.001505</v>
+        <v>16.001505000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>905.390000</v>
+        <v>905.39</v>
       </c>
       <c r="D8" s="1">
-        <v>-192.733000</v>
+        <v>-192.733</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>57615.553587</v>
+        <v>57615.553587000002</v>
       </c>
       <c r="G8" s="1">
-        <v>16.004320</v>
+        <v>16.00432</v>
       </c>
       <c r="H8" s="1">
-        <v>922.035000</v>
+        <v>922.03499999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.186000</v>
+        <v>-163.18600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>57625.717152</v>
+        <v>57625.717151999997</v>
       </c>
       <c r="L8" s="1">
         <v>16.007144</v>
       </c>
       <c r="M8" s="1">
-        <v>942.898000</v>
+        <v>942.89800000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.141000</v>
+        <v>-117.14100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>57636.266056</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.010074</v>
+        <v>16.010073999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>949.344000</v>
+        <v>949.34400000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.214000</v>
+        <v>-102.214</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>57647.099146</v>
       </c>
       <c r="V8" s="1">
-        <v>16.013083</v>
+        <v>16.013083000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>955.664000</v>
+        <v>955.66399999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.034000</v>
+        <v>-89.034000000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>57657.555338</v>
+        <v>57657.555337999998</v>
       </c>
       <c r="AA8" s="1">
         <v>16.015988</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.850000</v>
+        <v>962.85</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.868300</v>
+        <v>-79.868300000000005</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>57668.110705</v>
+        <v>57668.110704999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.018920</v>
+        <v>16.018920000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.833000</v>
+        <v>967.83299999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.598000</v>
+        <v>-79.597999999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>57678.597089</v>
+        <v>57678.597089000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.021833</v>
+        <v>16.021833000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.705000</v>
+        <v>975.70500000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.635100</v>
+        <v>-87.635099999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>57689.608770</v>
+        <v>57689.608769999999</v>
       </c>
       <c r="AP8" s="1">
         <v>16.024891</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.897000</v>
+        <v>984.89700000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.817000</v>
+        <v>-102.81699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>57700.608546</v>
+        <v>57700.608546000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.027947</v>
+        <v>16.027947000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.344000</v>
+        <v>996.34400000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.621000</v>
+        <v>-124.621</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>57711.640069</v>
+        <v>57711.640069000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.031011</v>
+        <v>16.031010999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.527000</v>
+        <v>-143.52699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>57723.050532</v>
+        <v>57723.050532000001</v>
       </c>
       <c r="BE8" s="1">
         <v>16.034181</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.790000</v>
+        <v>1051.79</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.017000</v>
+        <v>-229.017</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>57733.747254</v>
+        <v>57733.747254000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.037152</v>
+        <v>16.037151999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.572000</v>
+        <v>-365.572</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>57745.107623</v>
+        <v>57745.107623000004</v>
       </c>
       <c r="BO8" s="1">
         <v>16.040308</v>
       </c>
       <c r="BP8" s="1">
-        <v>1265.320000</v>
+        <v>1265.32</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.629000</v>
+        <v>-575.62900000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>57755.544937</v>
+        <v>57755.544936999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.043207</v>
+        <v>16.043206999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1414.110000</v>
+        <v>1414.11</v>
       </c>
       <c r="BV8" s="1">
-        <v>-798.766000</v>
+        <v>-798.76599999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>57766.740666</v>
+        <v>57766.740665999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.046317</v>
+        <v>16.046316999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1576.730000</v>
+        <v>1576.73</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1031.960000</v>
+        <v>-1031.96</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>57778.688269</v>
+        <v>57778.688268999998</v>
       </c>
       <c r="CD8" s="1">
         <v>16.049636</v>
       </c>
       <c r="CE8" s="1">
-        <v>1985.170000</v>
+        <v>1985.17</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1574.060000</v>
+        <v>-1574.06</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>57605.758591</v>
+        <v>57605.758590999998</v>
       </c>
       <c r="B9" s="1">
-        <v>16.001600</v>
+        <v>16.0016</v>
       </c>
       <c r="C9" s="1">
-        <v>905.708000</v>
+        <v>905.70799999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-192.696000</v>
+        <v>-192.696</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>57615.897810</v>
+        <v>57615.897810000002</v>
       </c>
       <c r="G9" s="1">
-        <v>16.004416</v>
+        <v>16.004415999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>921.941000</v>
+        <v>921.94100000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>-162.690000</v>
+        <v>-162.69</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>57626.065336</v>
       </c>
       <c r="L9" s="1">
-        <v>16.007240</v>
+        <v>16.007239999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>942.912000</v>
+        <v>942.91200000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.947000</v>
+        <v>-116.947</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>57636.937110</v>
+        <v>57636.937109999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.010260</v>
+        <v>16.010259999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>949.358000</v>
+        <v>949.35799999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.271000</v>
+        <v>-102.271</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>57647.471181</v>
+        <v>57647.471181000001</v>
       </c>
       <c r="V9" s="1">
-        <v>16.013186</v>
+        <v>16.013186000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>955.569000</v>
+        <v>955.56899999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.888600</v>
+        <v>-88.888599999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>57657.935275</v>
+        <v>57657.935275000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.016093</v>
+        <v>16.016093000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.834000</v>
+        <v>962.83399999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.815900</v>
+        <v>-79.815899999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>57668.454435</v>
@@ -2370,28 +2786,28 @@
         <v>16.019015</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.714000</v>
+        <v>967.71400000000006</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.572100</v>
+        <v>-79.572100000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>57678.942800</v>
+        <v>57678.942799999997</v>
       </c>
       <c r="AK9" s="1">
         <v>16.021929</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.715000</v>
+        <v>975.71500000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.654200</v>
+        <v>-87.654200000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>57689.966881</v>
@@ -2400,694 +2816,694 @@
         <v>16.024991</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.894000</v>
+        <v>984.89400000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.806000</v>
+        <v>-102.806</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>57701.038589</v>
+        <v>57701.038589000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.028066</v>
+        <v>16.028065999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.356000</v>
+        <v>996.35599999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.612000</v>
+        <v>-124.61199999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>57712.357811</v>
+        <v>57712.357811000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.031211</v>
+        <v>16.031210999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.537000</v>
+        <v>-143.53700000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>57723.336229</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.034260</v>
+        <v>16.03426</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.760000</v>
+        <v>1051.76</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.027000</v>
+        <v>-229.02699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>57734.124710</v>
+        <v>57734.124709999996</v>
       </c>
       <c r="BJ9" s="1">
         <v>16.037257</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.290000</v>
+        <v>1132.29</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.638000</v>
+        <v>-365.63799999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>57745.504918</v>
+        <v>57745.504917999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.040418</v>
+        <v>16.040417999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1265.300000</v>
+        <v>1265.3</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.644000</v>
+        <v>-575.64400000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>57755.973022</v>
+        <v>57755.973021999998</v>
       </c>
       <c r="BT9" s="1">
         <v>16.043326</v>
       </c>
       <c r="BU9" s="1">
-        <v>1414.120000</v>
+        <v>1414.12</v>
       </c>
       <c r="BV9" s="1">
-        <v>-798.892000</v>
+        <v>-798.89200000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>57767.185051</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.046440</v>
+        <v>16.04644</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1576.810000</v>
+        <v>1576.81</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1031.900000</v>
+        <v>-1031.9000000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>57779.226426</v>
+        <v>57779.226426000001</v>
       </c>
       <c r="CD9" s="1">
         <v>16.049785</v>
       </c>
       <c r="CE9" s="1">
-        <v>1985.500000</v>
+        <v>1985.5</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1576.090000</v>
+        <v>-1576.09</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>57606.101824</v>
+        <v>57606.101823999998</v>
       </c>
       <c r="B10" s="1">
-        <v>16.001695</v>
+        <v>16.001695000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>905.438000</v>
+        <v>905.43799999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-192.736000</v>
+        <v>-192.73599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>57616.555535</v>
       </c>
       <c r="G10" s="1">
-        <v>16.004599</v>
+        <v>16.004598999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>921.833000</v>
+        <v>921.83299999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-163.458000</v>
+        <v>-163.458</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>57626.734430</v>
+        <v>57626.734429999997</v>
       </c>
       <c r="L10" s="1">
-        <v>16.007426</v>
+        <v>16.007425999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>942.825000</v>
+        <v>942.82500000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.069000</v>
+        <v>-117.069</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>57637.310102</v>
+        <v>57637.310102000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.010364</v>
+        <v>16.010363999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>949.333000</v>
+        <v>949.33299999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.271000</v>
+        <v>-102.271</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>57647.814873</v>
+        <v>57647.814873000003</v>
       </c>
       <c r="V10" s="1">
         <v>16.013282</v>
       </c>
       <c r="W10" s="1">
-        <v>955.579000</v>
+        <v>955.57899999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.030100</v>
+        <v>-89.030100000000004</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>57658.282442</v>
+        <v>57658.282442000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.016190</v>
+        <v>16.016190000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.843000</v>
+        <v>962.84299999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.859900</v>
+        <v>-79.859899999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>57668.800108</v>
+        <v>57668.800108000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.019111</v>
+        <v>16.019110999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.745000</v>
+        <v>967.745</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.580300</v>
+        <v>-79.580299999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>57679.638191</v>
+        <v>57679.638190999998</v>
       </c>
       <c r="AK10" s="1">
         <v>16.022122</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.691000</v>
+        <v>975.69100000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.679100</v>
+        <v>-87.679100000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>57690.396911</v>
+        <v>57690.396911000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.025110</v>
+        <v>16.025110000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.908000</v>
+        <v>984.90800000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.831000</v>
+        <v>-102.831</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>57701.335681</v>
+        <v>57701.335680999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.028149</v>
+        <v>16.028148999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.349000</v>
+        <v>996.34900000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.602000</v>
+        <v>-124.602</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>57712.715890</v>
+        <v>57712.715889999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.031310</v>
+        <v>16.031310000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.530000</v>
+        <v>-143.53</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>57723.697317</v>
+        <v>57723.697316999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.034360</v>
+        <v>16.03436</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.810000</v>
+        <v>1051.81</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.021000</v>
+        <v>-229.02099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>57734.497205</v>
       </c>
       <c r="BJ10" s="1">
-        <v>16.037360</v>
+        <v>16.03736</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.280000</v>
+        <v>1132.28</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.583000</v>
+        <v>-365.58300000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>57745.937468</v>
+        <v>57745.937467999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.040538</v>
+        <v>16.040538000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1265.330000</v>
+        <v>1265.33</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.617000</v>
+        <v>-575.61699999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>57756.395115</v>
+        <v>57756.395114999999</v>
       </c>
       <c r="BT10" s="1">
         <v>16.043443</v>
       </c>
       <c r="BU10" s="1">
-        <v>1414.180000</v>
+        <v>1414.18</v>
       </c>
       <c r="BV10" s="1">
-        <v>-798.811000</v>
+        <v>-798.81100000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>57767.606649</v>
+        <v>57767.606649000001</v>
       </c>
       <c r="BY10" s="1">
         <v>16.046557</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1576.640000</v>
+        <v>1576.64</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1031.910000</v>
+        <v>-1031.9100000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>57779.766570</v>
+        <v>57779.76657</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.049935</v>
+        <v>16.049935000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1986.390000</v>
+        <v>1986.39</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1574.290000</v>
+        <v>-1574.29</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>57606.765966</v>
+        <v>57606.765965999999</v>
       </c>
       <c r="B11" s="1">
-        <v>16.001879</v>
+        <v>16.001878999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>905.385000</v>
+        <v>905.38499999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.658000</v>
+        <v>-192.65799999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>57616.935937</v>
+        <v>57616.935937000002</v>
       </c>
       <c r="G11" s="1">
         <v>16.004704</v>
       </c>
       <c r="H11" s="1">
-        <v>921.563000</v>
+        <v>921.56299999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-163.416000</v>
+        <v>-163.416</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>57627.098963</v>
+        <v>57627.098962999997</v>
       </c>
       <c r="L11" s="1">
         <v>16.007527</v>
       </c>
       <c r="M11" s="1">
-        <v>942.901000</v>
+        <v>942.90099999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.017000</v>
+        <v>-117.017</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>57637.661378</v>
+        <v>57637.661377999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.010461</v>
+        <v>16.010460999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>949.260000</v>
+        <v>949.26</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.244000</v>
+        <v>-102.244</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>57648.161604</v>
+        <v>57648.161604000001</v>
       </c>
       <c r="V11" s="1">
-        <v>16.013378</v>
+        <v>16.013377999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.582000</v>
+        <v>955.58199999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.916800</v>
+        <v>-88.916799999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>57658.633147</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.016287</v>
+        <v>16.016286999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.801000</v>
+        <v>962.80100000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.844800</v>
+        <v>-79.844800000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>57669.222699</v>
+        <v>57669.222698999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.019229</v>
+        <v>16.019228999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.775000</v>
+        <v>967.77499999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.611400</v>
+        <v>-79.611400000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>57679.988397</v>
+        <v>57679.988397000001</v>
       </c>
       <c r="AK11" s="1">
         <v>16.022219</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.690000</v>
+        <v>975.69</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.654500</v>
+        <v>-87.654499999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>57690.688065</v>
+        <v>57690.688065000002</v>
       </c>
       <c r="AP11" s="1">
         <v>16.025191</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.902000</v>
+        <v>984.90200000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.817000</v>
+        <v>-102.81699999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>57701.701266</v>
+        <v>57701.701265999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.028250</v>
+        <v>16.02825</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.339000</v>
+        <v>996.33900000000006</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.601000</v>
+        <v>-124.601</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>57713.077475</v>
+        <v>57713.077474999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.031410</v>
+        <v>16.031410000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.030000</v>
+        <v>1006.03</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.514000</v>
+        <v>-143.51400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>57724.059395</v>
+        <v>57724.059394999997</v>
       </c>
       <c r="BE11" s="1">
         <v>16.034461</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.015000</v>
+        <v>-229.01499999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>57735.269764</v>
+        <v>57735.269763999997</v>
       </c>
       <c r="BJ11" s="1">
         <v>16.037575</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.350000</v>
+        <v>1132.3499999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.608000</v>
+        <v>-365.608</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>57746.325301</v>
+        <v>57746.325300999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.040646</v>
+        <v>16.040645999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1265.330000</v>
+        <v>1265.33</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.613000</v>
+        <v>-575.61300000000006</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>57756.815688</v>
+        <v>57756.815688000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.043560</v>
+        <v>16.043559999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1414.180000</v>
+        <v>1414.18</v>
       </c>
       <c r="BV11" s="1">
-        <v>-798.846000</v>
+        <v>-798.846</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>57768.031729</v>
+        <v>57768.031729000002</v>
       </c>
       <c r="BY11" s="1">
         <v>16.046675</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1576.840000</v>
+        <v>1576.84</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1031.960000</v>
+        <v>-1031.96</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>57780.614265</v>
+        <v>57780.614264999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.050171</v>
+        <v>16.050170999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1986.380000</v>
+        <v>1986.38</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1576.260000</v>
+        <v>-1576.26</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>57607.127055</v>
+        <v>57607.127054999997</v>
       </c>
       <c r="B12" s="1">
-        <v>16.001980</v>
+        <v>16.00198</v>
       </c>
       <c r="C12" s="1">
-        <v>905.534000</v>
+        <v>905.53399999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-192.631000</v>
+        <v>-192.631</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>57617.280160</v>
+        <v>57617.280160000002</v>
       </c>
       <c r="G12" s="1">
-        <v>16.004800</v>
+        <v>16.004799999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>921.801000</v>
+        <v>921.80100000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.005000</v>
+        <v>-163.005</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>57627.446660</v>
+        <v>57627.446660000001</v>
       </c>
       <c r="L12" s="1">
         <v>16.007624</v>
       </c>
       <c r="M12" s="1">
-        <v>942.953000</v>
+        <v>942.95299999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.132000</v>
+        <v>-117.13200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>57638.007974</v>
@@ -3096,148 +3512,148 @@
         <v>16.010558</v>
       </c>
       <c r="R12" s="1">
-        <v>949.291000</v>
+        <v>949.29100000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.200000</v>
+        <v>-102.2</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>57648.582184</v>
+        <v>57648.582183999999</v>
       </c>
       <c r="V12" s="1">
-        <v>16.013495</v>
+        <v>16.013494999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>955.646000</v>
+        <v>955.64599999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.964500</v>
+        <v>-88.964500000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>57659.068107</v>
+        <v>57659.068106999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>16.016408</v>
+        <v>16.016407999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.816000</v>
+        <v>962.81600000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.804200</v>
+        <v>-79.804199999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>57669.492532</v>
+        <v>57669.492531999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.019303</v>
+        <v>16.019303000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.763000</v>
+        <v>967.76300000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.586900</v>
+        <v>-79.5869</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>57680.336556</v>
+        <v>57680.336556000002</v>
       </c>
       <c r="AK12" s="1">
         <v>16.022316</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.696000</v>
+        <v>975.69600000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.665700</v>
+        <v>-87.665700000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>57691.046698</v>
+        <v>57691.046697999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.025291</v>
+        <v>16.025290999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.914000</v>
+        <v>984.91399999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.832000</v>
+        <v>-102.83199999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>57702.066320</v>
+        <v>57702.066319999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.028352</v>
+        <v>16.028352000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.358000</v>
+        <v>996.35799999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.592000</v>
+        <v>-124.592</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>57713.792208</v>
+        <v>57713.792207999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>16.031609</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.517000</v>
+        <v>-143.517</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>57724.778595</v>
+        <v>57724.778595000003</v>
       </c>
       <c r="BE12" s="1">
         <v>16.034661</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.790000</v>
+        <v>1051.79</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.017000</v>
+        <v>-229.017</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>57735.647428</v>
+        <v>57735.647427999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.037680</v>
+        <v>16.037680000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.250000</v>
+        <v>1132.25</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.608000</v>
+        <v>-365.608</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>57746.740951</v>
@@ -3246,150 +3662,150 @@
         <v>16.040761</v>
       </c>
       <c r="BP12" s="1">
-        <v>1265.330000</v>
+        <v>1265.33</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.646000</v>
+        <v>-575.64599999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>57757.241255</v>
+        <v>57757.241255000001</v>
       </c>
       <c r="BT12" s="1">
         <v>16.043678</v>
       </c>
       <c r="BU12" s="1">
-        <v>1414.280000</v>
+        <v>1414.28</v>
       </c>
       <c r="BV12" s="1">
-        <v>-798.916000</v>
+        <v>-798.91600000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>57768.787623</v>
+        <v>57768.787622999997</v>
       </c>
       <c r="BY12" s="1">
         <v>16.046885</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1576.760000</v>
+        <v>1576.76</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1031.850000</v>
+        <v>-1031.8499999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>57780.846359</v>
+        <v>57780.846359000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.050235</v>
+        <v>16.050235000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1986.110000</v>
+        <v>1986.11</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1576.270000</v>
+        <v>-1576.27</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>57607.471313</v>
+        <v>57607.471313000002</v>
       </c>
       <c r="B13" s="1">
-        <v>16.002075</v>
+        <v>16.002075000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>905.595000</v>
+        <v>905.59500000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-192.831000</v>
+        <v>-192.83099999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>57617.622937</v>
       </c>
       <c r="G13" s="1">
-        <v>16.004895</v>
+        <v>16.004895000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>921.825000</v>
+        <v>921.82500000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-163.141000</v>
+        <v>-163.14099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>57627.790386</v>
+        <v>57627.790386000001</v>
       </c>
       <c r="L13" s="1">
-        <v>16.007720</v>
+        <v>16.007719999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>942.890000</v>
+        <v>942.89</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.100000</v>
+        <v>-117.1</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>57638.437013</v>
+        <v>57638.437013000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.010677</v>
+        <v>16.010677000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>949.308000</v>
+        <v>949.30799999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.177000</v>
+        <v>-102.17700000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>57648.851048</v>
+        <v>57648.851047999997</v>
       </c>
       <c r="V13" s="1">
-        <v>16.013570</v>
+        <v>16.013570000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>955.640000</v>
+        <v>955.64</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.974300</v>
+        <v>-88.974299999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>57659.330024</v>
+        <v>57659.330024000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.016481</v>
+        <v>16.016480999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.804000</v>
+        <v>962.80399999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.878800</v>
+        <v>-79.878799999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>57669.835756</v>
@@ -3398,1253 +3814,1253 @@
         <v>16.019399</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.808000</v>
+        <v>967.80799999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.704100</v>
+        <v>-79.704099999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>57680.687230</v>
+        <v>57680.687230000003</v>
       </c>
       <c r="AK13" s="1">
         <v>16.022413</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.685000</v>
+        <v>975.68499999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.644400</v>
+        <v>-87.644400000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>57691.408750</v>
+        <v>57691.408750000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.025391</v>
+        <v>16.025390999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.889000</v>
+        <v>984.88900000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.832000</v>
+        <v>-102.83199999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>57702.808799</v>
+        <v>57702.808798999999</v>
       </c>
       <c r="AU13" s="1">
         <v>16.028558</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.351000</v>
+        <v>996.351</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.623000</v>
+        <v>-124.623</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>57714.154321</v>
+        <v>57714.154321000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.031710</v>
+        <v>16.03171</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.550000</v>
+        <v>-143.55000000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>57725.144146</v>
+        <v>57725.144145999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.034762</v>
+        <v>16.034762000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.790000</v>
+        <v>1051.79</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.023000</v>
+        <v>-229.023</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>57736.021413</v>
+        <v>57736.021413000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>16.037784</v>
+        <v>16.037783999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.330000</v>
+        <v>1132.33</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.566000</v>
+        <v>-365.56599999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>57747.458672</v>
+        <v>57747.458672000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.040961</v>
+        <v>16.040960999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.641000</v>
+        <v>-575.64099999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>57757.967399</v>
+        <v>57757.967399000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.043880</v>
+        <v>16.043880000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1414.200000</v>
+        <v>1414.2</v>
       </c>
       <c r="BV13" s="1">
-        <v>-798.936000</v>
+        <v>-798.93600000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>57768.912121</v>
+        <v>57768.912121000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.046920</v>
+        <v>16.04692</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1576.710000</v>
+        <v>1576.71</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1031.940000</v>
+        <v>-1031.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>57781.366202</v>
+        <v>57781.366201999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.050380</v>
+        <v>16.050380000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1986.690000</v>
+        <v>1986.69</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1574.880000</v>
+        <v>-1574.88</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>57607.812526</v>
+        <v>57607.812526000002</v>
       </c>
       <c r="B14" s="1">
-        <v>16.002170</v>
+        <v>16.00217</v>
       </c>
       <c r="C14" s="1">
-        <v>905.414000</v>
+        <v>905.41399999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-192.810000</v>
+        <v>-192.81</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>57618.048999</v>
+        <v>57618.048998999999</v>
       </c>
       <c r="G14" s="1">
-        <v>16.005014</v>
+        <v>16.005013999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>921.659000</v>
+        <v>921.65899999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-163.543000</v>
+        <v>-163.54300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>57628.205539</v>
+        <v>57628.205539000002</v>
       </c>
       <c r="L14" s="1">
         <v>16.007835</v>
       </c>
       <c r="M14" s="1">
-        <v>943.030000</v>
+        <v>943.03</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.985000</v>
+        <v>-116.985</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>57638.703400</v>
+        <v>57638.703399999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.010751</v>
+        <v>16.010750999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>949.296000</v>
+        <v>949.29600000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.232000</v>
+        <v>-102.232</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>57649.195734</v>
+        <v>57649.195734000001</v>
       </c>
       <c r="V14" s="1">
         <v>16.013665</v>
       </c>
       <c r="W14" s="1">
-        <v>955.743000</v>
+        <v>955.74300000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.962300</v>
+        <v>-88.962299999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>57659.677192</v>
+        <v>57659.677192000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.016577</v>
+        <v>16.016577000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.862000</v>
+        <v>962.86199999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.776700</v>
+        <v>-79.776700000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>57670.179978</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.019494</v>
+        <v>16.019494000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.750000</v>
+        <v>967.75</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.635500</v>
+        <v>-79.635499999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>57681.384605</v>
+        <v>57681.384604999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.022607</v>
+        <v>16.022607000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.683000</v>
+        <v>975.68299999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.651300</v>
+        <v>-87.651300000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>57692.128941</v>
+        <v>57692.128941000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.025591</v>
+        <v>16.025590999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.894000</v>
+        <v>984.89400000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.831000</v>
+        <v>-102.831</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>57703.162975</v>
+        <v>57703.162974999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.028656</v>
+        <v>16.028656000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.350000</v>
+        <v>996.35</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.625000</v>
+        <v>-124.625</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>57714.512401</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.031809</v>
+        <v>16.031808999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.070000</v>
+        <v>1006.07</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.524000</v>
+        <v>-143.524</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>57725.503754</v>
+        <v>57725.503753999998</v>
       </c>
       <c r="BE14" s="1">
         <v>16.034862</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.017000</v>
+        <v>-229.017</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>57736.709394</v>
+        <v>57736.709393999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.037975</v>
+        <v>16.037974999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.300000</v>
+        <v>1132.3</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.634000</v>
+        <v>-365.63400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>57747.579189</v>
+        <v>57747.579188999996</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.040994</v>
+        <v>16.040994000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1265.310000</v>
+        <v>1265.31</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.596000</v>
+        <v>-575.596</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>57758.084454</v>
+        <v>57758.084454000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.043912</v>
+        <v>16.043911999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1414.320000</v>
+        <v>1414.32</v>
       </c>
       <c r="BV14" s="1">
-        <v>-798.898000</v>
+        <v>-798.89800000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>57769.351079</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.047042</v>
+        <v>16.047042000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1576.680000</v>
+        <v>1576.68</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1031.940000</v>
+        <v>-1031.94</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>57781.883494</v>
+        <v>57781.883494000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.050523</v>
+        <v>16.050522999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1986.760000</v>
+        <v>1986.76</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1575.570000</v>
+        <v>-1575.57</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>57608.231149</v>
+        <v>57608.231148999999</v>
       </c>
       <c r="B15" s="1">
-        <v>16.002286</v>
+        <v>16.002286000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>905.535000</v>
+        <v>905.53499999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-192.703000</v>
+        <v>-192.703</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>57618.326719</v>
+        <v>57618.326718999997</v>
       </c>
       <c r="G15" s="1">
         <v>16.005091</v>
       </c>
       <c r="H15" s="1">
-        <v>922.153000</v>
+        <v>922.15300000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-163.066000</v>
+        <v>-163.066</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>57628.504627</v>
+        <v>57628.504627000002</v>
       </c>
       <c r="L15" s="1">
         <v>16.007918</v>
       </c>
       <c r="M15" s="1">
-        <v>943.034000</v>
+        <v>943.03399999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.121000</v>
+        <v>-117.121</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>57639.055027</v>
+        <v>57639.055027000002</v>
       </c>
       <c r="Q15" s="1">
         <v>16.010849</v>
       </c>
       <c r="R15" s="1">
-        <v>949.300000</v>
+        <v>949.3</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>57649.538501</v>
+        <v>57649.538501000003</v>
       </c>
       <c r="V15" s="1">
-        <v>16.013761</v>
+        <v>16.013760999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>955.709000</v>
+        <v>955.70899999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.960100</v>
+        <v>-88.960099999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>57660.027400</v>
+        <v>57660.027399999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.016674</v>
+        <v>16.016673999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.863000</v>
+        <v>962.86300000000006</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.853200</v>
+        <v>-79.853200000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>57670.866939</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.019685</v>
+        <v>16.019684999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.668000</v>
+        <v>967.66800000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.745600</v>
+        <v>-79.745599999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>57681.733292</v>
+        <v>57681.733291999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.022704</v>
+        <v>16.022704000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.684000</v>
+        <v>975.68399999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.666900</v>
+        <v>-87.666899999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>57692.487588</v>
+        <v>57692.487588000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.025691</v>
+        <v>16.025690999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.902000</v>
+        <v>984.90200000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.828000</v>
+        <v>-102.828</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>57703.523536</v>
+        <v>57703.523536000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.028757</v>
+        <v>16.028756999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.356000</v>
+        <v>996.35599999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.607000</v>
+        <v>-124.607</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>57715.188975</v>
+        <v>57715.188974999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>16.031997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.547000</v>
+        <v>-143.547</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>57726.165410</v>
+        <v>57726.165410000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.035046</v>
+        <v>16.035046000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.790000</v>
+        <v>1051.79</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.024000</v>
+        <v>-229.024</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>57737.178579</v>
+        <v>57737.178578999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.038105</v>
+        <v>16.038105000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.300000</v>
+        <v>1132.3</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.650000</v>
+        <v>-365.65</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>57747.988419</v>
+        <v>57747.988419000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.041108</v>
+        <v>16.041108000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1265.320000</v>
+        <v>1265.32</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.618000</v>
+        <v>-575.61800000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>57758.522950</v>
+        <v>57758.522949999999</v>
       </c>
       <c r="BT15" s="1">
         <v>16.044034</v>
       </c>
       <c r="BU15" s="1">
-        <v>1414.330000</v>
+        <v>1414.33</v>
       </c>
       <c r="BV15" s="1">
-        <v>-798.885000</v>
+        <v>-798.88499999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>57769.822316</v>
+        <v>57769.822315999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.047173</v>
+        <v>16.047173000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1576.800000</v>
+        <v>1576.8</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1031.840000</v>
+        <v>-1031.8399999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>57782.435047</v>
+        <v>57782.435046999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.050676</v>
+        <v>16.050675999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1985.760000</v>
+        <v>1985.76</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1576.000000</v>
+        <v>-1576</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>57608.508907</v>
+        <v>57608.508907000003</v>
       </c>
       <c r="B16" s="1">
         <v>16.002364</v>
       </c>
       <c r="C16" s="1">
-        <v>905.566000</v>
+        <v>905.56600000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-192.812000</v>
+        <v>-192.81200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>57618.671443</v>
+        <v>57618.671442999999</v>
       </c>
       <c r="G16" s="1">
-        <v>16.005187</v>
+        <v>16.005186999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>922.055000</v>
+        <v>922.05499999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-163.525000</v>
+        <v>-163.52500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>57628.850337</v>
+        <v>57628.850337000003</v>
       </c>
       <c r="L16" s="1">
-        <v>16.008014</v>
+        <v>16.008013999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>943.068000</v>
+        <v>943.06799999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.095000</v>
+        <v>-117.095</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>57639.401731</v>
+        <v>57639.401730999998</v>
       </c>
       <c r="Q16" s="1">
         <v>16.010945</v>
       </c>
       <c r="R16" s="1">
-        <v>949.305000</v>
+        <v>949.30499999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>57650.227271</v>
+        <v>57650.227271000003</v>
       </c>
       <c r="V16" s="1">
         <v>16.013952</v>
       </c>
       <c r="W16" s="1">
-        <v>955.653000</v>
+        <v>955.65300000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.916100</v>
+        <v>-88.9161</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>57660.721766</v>
+        <v>57660.721766000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>16.016867</v>
+        <v>16.016867000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.800000</v>
+        <v>962.8</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.871500</v>
+        <v>-79.871499999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>57671.210666</v>
+        <v>57671.210665999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.019781</v>
+        <v>16.019780999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.748000</v>
+        <v>967.74800000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.562600</v>
+        <v>-79.562600000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>57682.083466</v>
+        <v>57682.083465999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.022801</v>
+        <v>16.022801000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.699000</v>
+        <v>975.69899999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.640100</v>
+        <v>-87.640100000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>57692.850124</v>
+        <v>57692.850123999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.025792</v>
+        <v>16.025791999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.906000</v>
+        <v>984.90599999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.810000</v>
+        <v>-102.81</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>57704.198589</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.028944</v>
+        <v>16.028943999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.350000</v>
+        <v>996.35</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.596000</v>
+        <v>-124.596</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>57715.612526</v>
+        <v>57715.612525999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.032115</v>
+        <v>16.032115000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.533000</v>
+        <v>-143.53299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>57726.616304</v>
+        <v>57726.616304000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.035171</v>
+        <v>16.035170999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.019000</v>
+        <v>-229.01900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>57737.568469</v>
+        <v>57737.568468999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.038213</v>
+        <v>16.038212999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.290000</v>
+        <v>1132.29</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.561000</v>
+        <v>-365.56099999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>57748.383731</v>
+        <v>57748.383731000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.041218</v>
+        <v>16.041218000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1265.290000</v>
+        <v>1265.29</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.624000</v>
+        <v>-575.62400000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>57758.950966</v>
+        <v>57758.950965999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.044153</v>
+        <v>16.044153000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1414.300000</v>
+        <v>1414.3</v>
       </c>
       <c r="BV16" s="1">
-        <v>-798.894000</v>
+        <v>-798.89400000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>57770.256310</v>
+        <v>57770.256309999997</v>
       </c>
       <c r="BY16" s="1">
         <v>16.047293</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1576.720000</v>
+        <v>1576.72</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1031.860000</v>
+        <v>-1031.8599999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>57782.968774</v>
+        <v>57782.968774000001</v>
       </c>
       <c r="CD16" s="1">
         <v>16.050825</v>
       </c>
       <c r="CE16" s="1">
-        <v>1986.670000</v>
+        <v>1986.67</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1574.820000</v>
+        <v>-1574.82</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>57608.866027</v>
+        <v>57608.866026999996</v>
       </c>
       <c r="B17" s="1">
-        <v>16.002463</v>
+        <v>16.002462999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>905.464000</v>
+        <v>905.46400000000006</v>
       </c>
       <c r="D17" s="1">
-        <v>-192.651000</v>
+        <v>-192.65100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>57619.016691</v>
+        <v>57619.016690999997</v>
       </c>
       <c r="G17" s="1">
-        <v>16.005282</v>
+        <v>16.005282000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>922.095000</v>
+        <v>922.09500000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-163.399000</v>
+        <v>-163.399</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>57629.195766</v>
+        <v>57629.195765999997</v>
       </c>
       <c r="L17" s="1">
-        <v>16.008110</v>
+        <v>16.008109999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>942.981000</v>
+        <v>942.98099999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.095000</v>
+        <v>-117.095</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>57640.099603</v>
+        <v>57640.099603000002</v>
       </c>
       <c r="Q17" s="1">
         <v>16.011139</v>
       </c>
       <c r="R17" s="1">
-        <v>949.307000</v>
+        <v>949.30700000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.249000</v>
+        <v>-102.249</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>57650.569157</v>
+        <v>57650.569156999998</v>
       </c>
       <c r="V17" s="1">
-        <v>16.014047</v>
+        <v>16.014047000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>955.716000</v>
+        <v>955.71600000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.951000</v>
+        <v>-88.950999999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>57661.069959</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.016964</v>
+        <v>16.016964000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.807000</v>
+        <v>962.80700000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.848500</v>
+        <v>-79.848500000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>57671.553432</v>
+        <v>57671.553432000001</v>
       </c>
       <c r="AF17" s="1">
         <v>16.019876</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.738000</v>
+        <v>967.73800000000006</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.584700</v>
+        <v>-79.584699999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>57682.755076</v>
+        <v>57682.755076000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.022988</v>
+        <v>16.022988000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.720000</v>
+        <v>975.72</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.659200</v>
+        <v>-87.659199999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>57693.524188</v>
+        <v>57693.524188000003</v>
       </c>
       <c r="AP17" s="1">
         <v>16.025979</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.907000</v>
+        <v>984.90700000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.797000</v>
+        <v>-102.797</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>57704.618701</v>
+        <v>57704.618700999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.029061</v>
+        <v>16.029060999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.351000</v>
+        <v>996.351</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.608000</v>
+        <v>-124.608</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>57715.991507</v>
+        <v>57715.991506999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.032220</v>
+        <v>16.032219999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.548000</v>
+        <v>-143.548</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>57726.976367</v>
+        <v>57726.976367000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.035271</v>
+        <v>16.035271000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.810000</v>
+        <v>1051.81</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.999000</v>
+        <v>-228.999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>57737.941955</v>
+        <v>57737.941955000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.038317</v>
+        <v>16.038316999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.649000</v>
+        <v>-365.649</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>57748.810786</v>
+        <v>57748.810786000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.041336</v>
+        <v>16.041336000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1265.300000</v>
+        <v>1265.3</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.625000</v>
+        <v>-575.625</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>57759.374554</v>
+        <v>57759.374554000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.044271</v>
+        <v>16.044270999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1414.300000</v>
+        <v>1414.3</v>
       </c>
       <c r="BV17" s="1">
-        <v>-798.979000</v>
+        <v>-798.97900000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>57770.678373</v>
+        <v>57770.678373000002</v>
       </c>
       <c r="BY17" s="1">
         <v>16.047411</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1576.630000</v>
+        <v>1576.63</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1031.970000</v>
+        <v>-1031.97</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>57783.485605</v>
+        <v>57783.485605000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.050968</v>
+        <v>16.050968000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.680000</v>
+        <v>1985.68</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1573.980000</v>
+        <v>-1573.98</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>57609.215212</v>
+        <v>57609.215212000003</v>
       </c>
       <c r="B18" s="1">
-        <v>16.002560</v>
+        <v>16.002559999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>905.580000</v>
+        <v>905.58</v>
       </c>
       <c r="D18" s="1">
-        <v>-192.632000</v>
+        <v>-192.63200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>57619.711084</v>
+        <v>57619.711084000002</v>
       </c>
       <c r="G18" s="1">
-        <v>16.005475</v>
+        <v>16.005475000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>922.012000</v>
+        <v>922.01199999999994</v>
       </c>
       <c r="I18" s="1">
-        <v>-163.695000</v>
+        <v>-163.69499999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>57629.895689</v>
+        <v>57629.895688999997</v>
       </c>
       <c r="L18" s="1">
-        <v>16.008304</v>
+        <v>16.008303999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>942.948000</v>
+        <v>942.94799999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.157000</v>
+        <v>-117.157</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>57640.445314</v>
+        <v>57640.445313999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.011235</v>
+        <v>16.011234999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>949.381000</v>
+        <v>949.38099999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.226000</v>
+        <v>-102.226</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>57650.912419</v>
@@ -4653,178 +5069,178 @@
         <v>16.014142</v>
       </c>
       <c r="W18" s="1">
-        <v>955.580000</v>
+        <v>955.58</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.983800</v>
+        <v>-88.983800000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>57661.422646</v>
+        <v>57661.422645999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.017062</v>
+        <v>16.017061999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.834000</v>
+        <v>962.83399999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.822700</v>
+        <v>-79.822699999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>57672.217049</v>
+        <v>57672.217048999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>16.020060</v>
+        <v>16.020060000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.806000</v>
+        <v>967.80600000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.828900</v>
+        <v>-79.828900000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>57683.126059</v>
+        <v>57683.126059000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.023091</v>
+        <v>16.023091000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.695000</v>
+        <v>975.69500000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.641600</v>
+        <v>-87.641599999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>57693.960203</v>
+        <v>57693.960203000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>16.026100</v>
+        <v>16.0261</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.897000</v>
+        <v>984.89700000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.838000</v>
+        <v>-102.83799999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>57704.984749</v>
+        <v>57704.984749000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.029162</v>
+        <v>16.029161999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.331000</v>
+        <v>996.33100000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.609000</v>
+        <v>-124.60899999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>57716.350077</v>
+        <v>57716.350077000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.032319</v>
+        <v>16.032319000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.070000</v>
+        <v>1006.07</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.527000</v>
+        <v>-143.52699999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>57727.341918</v>
+        <v>57727.341917999998</v>
       </c>
       <c r="BE18" s="1">
         <v>16.035373</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.820000</v>
+        <v>1051.82</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.016000</v>
+        <v>-229.01599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>57738.371457</v>
+        <v>57738.371457000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.038437</v>
+        <v>16.038436999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.250000</v>
+        <v>1132.25</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.593000</v>
+        <v>-365.59300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>57749.203617</v>
+        <v>57749.203616999999</v>
       </c>
       <c r="BO18" s="1">
         <v>16.041445</v>
       </c>
       <c r="BP18" s="1">
-        <v>1265.300000</v>
+        <v>1265.3</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.597000</v>
+        <v>-575.59699999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>57759.789700</v>
+        <v>57759.789700000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.044386</v>
+        <v>16.044385999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1414.390000</v>
+        <v>1414.39</v>
       </c>
       <c r="BV18" s="1">
-        <v>-798.920000</v>
+        <v>-798.92</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>57771.098485</v>
+        <v>57771.098485000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.047527</v>
+        <v>16.047526999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1576.730000</v>
+        <v>1576.73</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1032.100000</v>
+        <v>-1032.0999999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>57784.003397</v>
@@ -4833,906 +5249,906 @@
         <v>16.051112</v>
       </c>
       <c r="CE18" s="1">
-        <v>1984.670000</v>
+        <v>1984.67</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1575.320000</v>
+        <v>-1575.32</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>57609.896250</v>
+        <v>57609.896249999998</v>
       </c>
       <c r="B19" s="1">
-        <v>16.002749</v>
+        <v>16.002749000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>905.651000</v>
+        <v>905.65099999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-192.868000</v>
+        <v>-192.86799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>57620.052815</v>
+        <v>57620.052815000003</v>
       </c>
       <c r="G19" s="1">
-        <v>16.005570</v>
+        <v>16.005569999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>922.084000</v>
+        <v>922.08399999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-162.975000</v>
+        <v>-162.97499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>57630.249057</v>
+        <v>57630.249057000001</v>
       </c>
       <c r="L19" s="1">
-        <v>16.008403</v>
+        <v>16.008403000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>942.969000</v>
+        <v>942.96900000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.333000</v>
+        <v>-117.333</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>57640.796017</v>
+        <v>57640.796017000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>16.011332</v>
+        <v>16.011331999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>949.415000</v>
+        <v>949.41499999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.259000</v>
+        <v>-102.259</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>57651.564659</v>
+        <v>57651.564659000003</v>
       </c>
       <c r="V19" s="1">
-        <v>16.014324</v>
+        <v>16.014323999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>955.836000</v>
+        <v>955.83600000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.934300</v>
+        <v>-88.934299999999993</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>57662.106634</v>
+        <v>57662.106634000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.017252</v>
+        <v>16.017251999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.819000</v>
+        <v>962.81899999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.823500</v>
+        <v>-79.823499999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>57672.585575</v>
+        <v>57672.585574999997</v>
       </c>
       <c r="AF19" s="1">
         <v>16.020163</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.746000</v>
+        <v>967.74599999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.532300</v>
+        <v>-79.532300000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>57683.475241</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.023188</v>
+        <v>16.023188000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.689000</v>
+        <v>975.68899999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.645100</v>
+        <v>-87.645099999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>57694.320301</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.026200</v>
+        <v>16.026199999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.930000</v>
+        <v>984.93</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.831000</v>
+        <v>-102.831</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>57705.347819</v>
+        <v>57705.347819000002</v>
       </c>
       <c r="AU19" s="1">
         <v>16.029263</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.355000</v>
+        <v>996.35500000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.628000</v>
+        <v>-124.628</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>57716.778126</v>
+        <v>57716.778125999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.032438</v>
+        <v>16.032437999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.070000</v>
+        <v>1006.07</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.537000</v>
+        <v>-143.53700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>57727.761534</v>
+        <v>57727.761533999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.035489</v>
+        <v>16.035488999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.041000</v>
+        <v>-229.041</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>57738.693890</v>
+        <v>57738.693890000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.038526</v>
+        <v>16.038526000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.320000</v>
+        <v>1132.32</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.628000</v>
+        <v>-365.62799999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>57749.624193</v>
+        <v>57749.624193000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.041562</v>
+        <v>16.041561999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1265.320000</v>
+        <v>1265.32</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.659000</v>
+        <v>-575.65899999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>57760.223203</v>
+        <v>57760.223203000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.044506</v>
+        <v>16.044505999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1414.340000</v>
+        <v>1414.34</v>
       </c>
       <c r="BV19" s="1">
-        <v>-798.982000</v>
+        <v>-798.98199999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>57771.524052</v>
+        <v>57771.524052000001</v>
       </c>
       <c r="BY19" s="1">
         <v>16.047646</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1576.860000</v>
+        <v>1576.86</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1031.880000</v>
+        <v>-1031.8800000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>57784.520723</v>
+        <v>57784.520723000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.051256</v>
+        <v>16.051255999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1984.720000</v>
+        <v>1984.72</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1575.450000</v>
+        <v>-1575.45</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>57610.239979</v>
+        <v>57610.239978999998</v>
       </c>
       <c r="B20" s="1">
         <v>16.002844</v>
       </c>
       <c r="C20" s="1">
-        <v>905.822000</v>
+        <v>905.822</v>
       </c>
       <c r="D20" s="1">
-        <v>-192.870000</v>
+        <v>-192.87</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>57620.398014</v>
+        <v>57620.398013999999</v>
       </c>
       <c r="G20" s="1">
-        <v>16.005666</v>
+        <v>16.005666000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>921.920000</v>
+        <v>921.92</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.329000</v>
+        <v>-163.32900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>57630.910222</v>
+        <v>57630.910221999999</v>
       </c>
       <c r="L20" s="1">
-        <v>16.008586</v>
+        <v>16.008586000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>943.087000</v>
+        <v>943.08699999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.109000</v>
+        <v>-117.10899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>57641.459167</v>
+        <v>57641.459167000001</v>
       </c>
       <c r="Q20" s="1">
         <v>16.011516</v>
       </c>
       <c r="R20" s="1">
-        <v>949.385000</v>
+        <v>949.38499999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.289000</v>
+        <v>-102.289</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>57651.942610</v>
+        <v>57651.942609999998</v>
       </c>
       <c r="V20" s="1">
         <v>16.014429</v>
       </c>
       <c r="W20" s="1">
-        <v>955.682000</v>
+        <v>955.68200000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.853600</v>
+        <v>-88.8536</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>57662.467686</v>
+        <v>57662.467686000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.017352</v>
+        <v>16.017351999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.891000</v>
+        <v>962.89099999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.853600</v>
+        <v>-79.8536</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>57672.930295</v>
+        <v>57672.930294999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.020258</v>
+        <v>16.020257999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.826000</v>
+        <v>967.82600000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.639400</v>
+        <v>-79.639399999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>57683.821450</v>
+        <v>57683.821450000003</v>
       </c>
       <c r="AK20" s="1">
         <v>16.023284</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.722000</v>
+        <v>975.72199999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.637900</v>
+        <v>-87.637900000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>57694.680364</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.026300</v>
+        <v>16.026299999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.920000</v>
+        <v>984.92</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.830000</v>
+        <v>-102.83</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>57705.775404</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.029382</v>
+        <v>16.029381999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.373000</v>
+        <v>996.37300000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.587000</v>
+        <v>-124.587</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>57717.069774</v>
+        <v>57717.069774000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.032519</v>
+        <v>16.032519000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.529000</v>
+        <v>-143.529</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>57728.063599</v>
+        <v>57728.063599000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.035573</v>
+        <v>16.035572999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.003000</v>
+        <v>-229.00299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>57739.077296</v>
+        <v>57739.077296000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.038633</v>
+        <v>16.038633000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.250000</v>
+        <v>1132.25</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.603000</v>
+        <v>-365.60300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>57750.022481</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.041673</v>
+        <v>16.041672999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1265.320000</v>
+        <v>1265.32</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.667000</v>
+        <v>-575.66700000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>57760.634186</v>
+        <v>57760.634186000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.044621</v>
+        <v>16.044620999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1414.400000</v>
+        <v>1414.4</v>
       </c>
       <c r="BV20" s="1">
-        <v>-798.995000</v>
+        <v>-798.995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>57771.950117</v>
       </c>
       <c r="BY20" s="1">
-        <v>16.047764</v>
+        <v>16.047764000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1576.620000</v>
+        <v>1576.62</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1031.900000</v>
+        <v>-1031.9000000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>57785.080708</v>
+        <v>57785.080708000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.051411</v>
+        <v>16.051411000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1985.030000</v>
+        <v>1985.03</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1573.930000</v>
+        <v>-1573.93</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>57610.585658</v>
+        <v>57610.585658000004</v>
       </c>
       <c r="B21" s="1">
-        <v>16.002940</v>
+        <v>16.002939999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>905.633000</v>
+        <v>905.63300000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-192.803000</v>
+        <v>-192.803</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>57621.067115</v>
+        <v>57621.067114999998</v>
       </c>
       <c r="G21" s="1">
-        <v>16.005852</v>
+        <v>16.005852000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>921.859000</v>
+        <v>921.85900000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-163.375000</v>
+        <v>-163.375</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>57631.279742</v>
+        <v>57631.279741999999</v>
       </c>
       <c r="L21" s="1">
         <v>16.008689</v>
       </c>
       <c r="M21" s="1">
-        <v>943.103000</v>
+        <v>943.10299999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.999000</v>
+        <v>-116.999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>57641.845520</v>
+        <v>57641.845520000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.011624</v>
+        <v>16.011624000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>949.357000</v>
+        <v>949.35699999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.255000</v>
+        <v>-102.255</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>57652.285811</v>
+        <v>57652.285811000002</v>
       </c>
       <c r="V21" s="1">
-        <v>16.014524</v>
+        <v>16.014524000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>955.690000</v>
+        <v>955.69</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.881700</v>
+        <v>-88.881699999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>57662.826068</v>
+        <v>57662.826068000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.017452</v>
+        <v>16.017451999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.829000</v>
+        <v>962.82899999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.824000</v>
+        <v>-79.823999999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>57673.280011</v>
+        <v>57673.280011000003</v>
       </c>
       <c r="AF21" s="1">
         <v>16.020356</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.835000</v>
+        <v>967.83500000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.531500</v>
+        <v>-79.531499999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>57684.232663</v>
+        <v>57684.232663000003</v>
       </c>
       <c r="AK21" s="1">
         <v>16.023398</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.682000</v>
+        <v>975.68200000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.651400</v>
+        <v>-87.651399999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>57695.121305</v>
+        <v>57695.121305000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.026423</v>
+        <v>16.026423000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.894000</v>
+        <v>984.89400000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.824000</v>
+        <v>-102.824</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>57706.077468</v>
+        <v>57706.077468000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.029466</v>
+        <v>16.029465999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.363000</v>
+        <v>996.36300000000006</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.604000</v>
+        <v>-124.604</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>57717.426893</v>
+        <v>57717.426893000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>16.032619</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.526000</v>
+        <v>-143.52600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>57728.426190</v>
+        <v>57728.426189999998</v>
       </c>
       <c r="BE21" s="1">
         <v>16.035674</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.011000</v>
+        <v>-229.011</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>57739.466128</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.038741</v>
+        <v>16.038741000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.280000</v>
+        <v>1132.28</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.650000</v>
+        <v>-365.65</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>57750.447057</v>
+        <v>57750.447056999998</v>
       </c>
       <c r="BO21" s="1">
         <v>16.041791</v>
       </c>
       <c r="BP21" s="1">
-        <v>1265.340000</v>
+        <v>1265.3399999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.632000</v>
+        <v>-575.63199999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>57761.489985</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.044858</v>
+        <v>16.044858000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1414.500000</v>
+        <v>1414.5</v>
       </c>
       <c r="BV21" s="1">
-        <v>-799.050000</v>
+        <v>-799.05</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>57772.388084</v>
+        <v>57772.388083999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.047886</v>
+        <v>16.047885999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1576.610000</v>
+        <v>1576.61</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1031.930000</v>
+        <v>-1031.93</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>57785.600018</v>
+        <v>57785.600017999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.051556</v>
+        <v>16.051556000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1984.580000</v>
+        <v>1984.58</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1575.810000</v>
+        <v>-1575.81</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>57611.242393</v>
       </c>
       <c r="B22" s="1">
-        <v>16.003123</v>
+        <v>16.003122999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>905.728000</v>
+        <v>905.72799999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-192.764000</v>
+        <v>-192.76400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>57621.433162</v>
+        <v>57621.433162000001</v>
       </c>
       <c r="G22" s="1">
-        <v>16.005954</v>
+        <v>16.005953999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>921.766000</v>
+        <v>921.76599999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-163.460000</v>
+        <v>-163.46</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>57631.625453</v>
+        <v>57631.625453000001</v>
       </c>
       <c r="L22" s="1">
         <v>16.008785</v>
       </c>
       <c r="M22" s="1">
-        <v>943.013000</v>
+        <v>943.01300000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.059000</v>
+        <v>-117.059</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>57642.192719</v>
+        <v>57642.192718999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.011720</v>
+        <v>16.01172</v>
       </c>
       <c r="R22" s="1">
-        <v>949.301000</v>
+        <v>949.30100000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.255000</v>
+        <v>-102.255</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>57652.631025</v>
+        <v>57652.631025000002</v>
       </c>
       <c r="V22" s="1">
-        <v>16.014620</v>
+        <v>16.014620000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>955.692000</v>
+        <v>955.69200000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.916800</v>
+        <v>-88.916799999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>57663.411076</v>
+        <v>57663.411075999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.017614</v>
+        <v>16.017613999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.841000</v>
+        <v>962.84100000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.859500</v>
+        <v>-79.859499999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>57673.704549</v>
+        <v>57673.704549000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.020473</v>
+        <v>16.020472999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.800000</v>
+        <v>967.8</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.646300</v>
+        <v>-79.646299999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>57684.521303</v>
+        <v>57684.521303000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.023478</v>
+        <v>16.023478000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.698000</v>
+        <v>975.69799999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.680300</v>
+        <v>-87.680300000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>57695.402081</v>
@@ -5741,330 +6157,330 @@
         <v>16.026501</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.918000</v>
+        <v>984.91800000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.816000</v>
+        <v>-102.816</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>57706.442031</v>
+        <v>57706.442030999999</v>
       </c>
       <c r="AU22" s="1">
         <v>16.029567</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.368000</v>
+        <v>996.36800000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.613000</v>
+        <v>-124.613</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>57717.787577</v>
+        <v>57717.787577000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>16.032719</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.511000</v>
+        <v>-143.511</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>57728.999084</v>
+        <v>57728.999084000003</v>
       </c>
       <c r="BE22" s="1">
         <v>16.035833</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.015000</v>
+        <v>-229.01499999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>57740.216609</v>
+        <v>57740.216609000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.038949</v>
+        <v>16.038948999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.280000</v>
+        <v>1132.28</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.553000</v>
+        <v>-365.553</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>57750.836913</v>
+        <v>57750.836912999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.041899</v>
+        <v>16.041899000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1265.300000</v>
+        <v>1265.3</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.666000</v>
+        <v>-575.66600000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>57761.924017</v>
+        <v>57761.924016999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.044979</v>
+        <v>16.044979000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1414.450000</v>
+        <v>1414.45</v>
       </c>
       <c r="BV22" s="1">
-        <v>-799.064000</v>
+        <v>-799.06399999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>57772.804228</v>
+        <v>57772.804228000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.048001</v>
+        <v>16.048000999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1576.690000</v>
+        <v>1576.69</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1031.990000</v>
+        <v>-1031.99</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>57786.422881</v>
+        <v>57786.422880999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.051784</v>
+        <v>16.051784000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1986.380000</v>
+        <v>1986.38</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1575.740000</v>
+        <v>-1575.74</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>57611.614360</v>
+        <v>57611.61436</v>
       </c>
       <c r="B23" s="1">
-        <v>16.003226</v>
+        <v>16.003226000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>905.716000</v>
+        <v>905.71600000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-192.665000</v>
+        <v>-192.66499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>57621.779389</v>
+        <v>57621.779389000003</v>
       </c>
       <c r="G23" s="1">
-        <v>16.006050</v>
+        <v>16.006049999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>921.854000</v>
+        <v>921.85400000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-163.195000</v>
+        <v>-163.19499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>57631.971661</v>
+        <v>57631.971661000003</v>
       </c>
       <c r="L23" s="1">
-        <v>16.008881</v>
+        <v>16.008880999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>943.053000</v>
+        <v>943.053</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.141000</v>
+        <v>-117.14100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>57642.538463</v>
+        <v>57642.538462999997</v>
       </c>
       <c r="Q23" s="1">
         <v>16.011816</v>
       </c>
       <c r="R23" s="1">
-        <v>949.298000</v>
+        <v>949.298</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.211000</v>
+        <v>-102.211</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>57653.062081</v>
+        <v>57653.062080999996</v>
       </c>
       <c r="V23" s="1">
-        <v>16.014739</v>
+        <v>16.014738999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>955.591000</v>
+        <v>955.59100000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.983900</v>
+        <v>-88.983900000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>57663.520195</v>
+        <v>57663.520194999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.017644</v>
+        <v>16.017644000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.843000</v>
+        <v>962.84299999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.844700</v>
+        <v>-79.844700000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>57673.982346</v>
+        <v>57673.982345999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.020551</v>
+        <v>16.020551000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.760000</v>
+        <v>967.76</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.613600</v>
+        <v>-79.613600000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>57684.872006</v>
+        <v>57684.872005999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.023576</v>
+        <v>16.023575999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.705000</v>
+        <v>975.70500000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.661900</v>
+        <v>-87.661900000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>57695.762632</v>
+        <v>57695.762631999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.026601</v>
+        <v>16.026600999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.925000</v>
+        <v>984.92499999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.816000</v>
+        <v>-102.816</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>57706.805068</v>
+        <v>57706.805068000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.029668</v>
+        <v>16.029668000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.361000</v>
+        <v>996.36099999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.597000</v>
+        <v>-124.59699999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>57718.506186</v>
+        <v>57718.506185999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.032918</v>
+        <v>16.032917999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.527000</v>
+        <v>-143.52699999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>57729.144380</v>
+        <v>57729.144379999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.035873</v>
+        <v>16.035872999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.820000</v>
+        <v>1051.82</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.018000</v>
+        <v>-229.018</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>57740.616384</v>
+        <v>57740.616384000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.039060</v>
+        <v>16.039059999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.310000</v>
+        <v>1132.31</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.622000</v>
+        <v>-365.62200000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>57751.258511</v>
@@ -6073,105 +6489,105 @@
         <v>16.042016</v>
       </c>
       <c r="BP23" s="1">
-        <v>1265.310000</v>
+        <v>1265.31</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.641000</v>
+        <v>-575.64099999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>57762.641696</v>
+        <v>57762.641695999999</v>
       </c>
       <c r="BT23" s="1">
         <v>16.045178</v>
       </c>
       <c r="BU23" s="1">
-        <v>1414.410000</v>
+        <v>1414.41</v>
       </c>
       <c r="BV23" s="1">
-        <v>-799.151000</v>
+        <v>-799.15099999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>57773.547729</v>
+        <v>57773.547728999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.048208</v>
+        <v>16.048207999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1577.020000</v>
+        <v>1577.02</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1032.110000</v>
+        <v>-1032.1099999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>57786.637152</v>
+        <v>57786.637152000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.051844</v>
+        <v>16.051843999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1986.030000</v>
+        <v>1986.03</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1574.260000</v>
+        <v>-1574.26</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>57611.958121</v>
+        <v>57611.958121000003</v>
       </c>
       <c r="B24" s="1">
-        <v>16.003322</v>
+        <v>16.003322000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>905.711000</v>
+        <v>905.71100000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-192.775000</v>
+        <v>-192.77500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>57622.122602</v>
+        <v>57622.122602000003</v>
       </c>
       <c r="G24" s="1">
         <v>16.006145</v>
       </c>
       <c r="H24" s="1">
-        <v>921.723000</v>
+        <v>921.72299999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-163.027000</v>
+        <v>-163.02699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>57632.403677</v>
+        <v>57632.403677000002</v>
       </c>
       <c r="L24" s="1">
-        <v>16.009001</v>
+        <v>16.009001000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>943.178000</v>
+        <v>943.178</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.146000</v>
+        <v>-117.146</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>57642.972962</v>
@@ -6180,255 +6596,255 @@
         <v>16.011937</v>
       </c>
       <c r="R24" s="1">
-        <v>949.325000</v>
+        <v>949.32500000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.199000</v>
+        <v>-102.199</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>57653.337329</v>
+        <v>57653.337329000002</v>
       </c>
       <c r="V24" s="1">
         <v>16.014816</v>
       </c>
       <c r="W24" s="1">
-        <v>955.560000</v>
+        <v>955.56</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.852800</v>
+        <v>-88.852800000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>57663.866900</v>
+        <v>57663.866900000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.017741</v>
+        <v>16.017741000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.872000</v>
+        <v>962.87199999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.802400</v>
+        <v>-79.802400000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>57674.325120</v>
+        <v>57674.325120000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.020646</v>
+        <v>16.020645999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.786000</v>
+        <v>967.78599999999994</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.618100</v>
+        <v>-79.618099999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>57685.220166</v>
+        <v>57685.220165999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.023672</v>
+        <v>16.023672000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.715000</v>
+        <v>975.71500000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.658400</v>
+        <v>-87.6584</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>57696.483321</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.026801</v>
+        <v>16.026800999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.921000</v>
+        <v>984.92100000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.818000</v>
+        <v>-102.818</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>57707.537162</v>
+        <v>57707.537162000001</v>
       </c>
       <c r="AU24" s="1">
         <v>16.029871</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.372000</v>
+        <v>996.37199999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.601000</v>
+        <v>-124.601</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>57718.882663</v>
+        <v>57718.882662999997</v>
       </c>
       <c r="AZ24" s="1">
         <v>16.033023</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.522000</v>
+        <v>-143.52199999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>57729.506461</v>
+        <v>57729.506460999997</v>
       </c>
       <c r="BE24" s="1">
         <v>16.035974</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.780000</v>
+        <v>1051.78</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.020000</v>
+        <v>-229.02</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>57740.992814</v>
+        <v>57740.992813999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.039165</v>
+        <v>16.039165000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.260000</v>
+        <v>1132.26</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.639000</v>
+        <v>-365.63900000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>57751.961342</v>
+        <v>57751.961342000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.042211</v>
+        <v>16.042211000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1265.310000</v>
+        <v>1265.31</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.662000</v>
+        <v>-575.66200000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>57762.767184</v>
+        <v>57762.767183999997</v>
       </c>
       <c r="BT24" s="1">
         <v>16.045213</v>
       </c>
       <c r="BU24" s="1">
-        <v>1414.460000</v>
+        <v>1414.46</v>
       </c>
       <c r="BV24" s="1">
-        <v>-799.121000</v>
+        <v>-799.12099999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>57773.934113</v>
+        <v>57773.934113000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.048315</v>
+        <v>16.048314999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1576.660000</v>
+        <v>1576.66</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1031.970000</v>
+        <v>-1031.97</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>57787.157457</v>
+        <v>57787.157457000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.051988</v>
+        <v>16.051988000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1986.120000</v>
+        <v>1986.12</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1574.170000</v>
+        <v>-1574.17</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>57612.299336</v>
+        <v>57612.299335999996</v>
       </c>
       <c r="B25" s="1">
-        <v>16.003416</v>
+        <v>16.003416000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>905.625000</v>
+        <v>905.625</v>
       </c>
       <c r="D25" s="1">
-        <v>-192.613000</v>
+        <v>-192.613</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>57622.555610</v>
+        <v>57622.555610000003</v>
       </c>
       <c r="G25" s="1">
-        <v>16.006265</v>
+        <v>16.006264999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>921.759000</v>
+        <v>921.75900000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.618000</v>
+        <v>-163.61799999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>57632.683468</v>
+        <v>57632.683468000003</v>
       </c>
       <c r="L25" s="1">
         <v>16.009079</v>
       </c>
       <c r="M25" s="1">
-        <v>942.970000</v>
+        <v>942.97</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.263000</v>
+        <v>-117.26300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>57643.247742</v>
@@ -6437,390 +6853,390 @@
         <v>16.012013</v>
       </c>
       <c r="R25" s="1">
-        <v>949.369000</v>
+        <v>949.36900000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.208000</v>
+        <v>-102.208</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>57653.685552</v>
+        <v>57653.685552000003</v>
       </c>
       <c r="V25" s="1">
         <v>16.014913</v>
       </c>
       <c r="W25" s="1">
-        <v>955.637000</v>
+        <v>955.63699999999994</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.009300</v>
+        <v>-89.009299999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>57664.217106</v>
+        <v>57664.217105999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.017838</v>
+        <v>16.017838000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.789000</v>
+        <v>962.78899999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.868400</v>
+        <v>-79.868399999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>57674.670756</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.020742</v>
+        <v>16.020741999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.808000</v>
+        <v>967.80799999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.623600</v>
+        <v>-79.623599999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>57685.914565</v>
+        <v>57685.914564999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.023865</v>
+        <v>16.023865000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.706000</v>
+        <v>975.70600000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.651600</v>
+        <v>-87.651600000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>57696.873189</v>
+        <v>57696.873188999998</v>
       </c>
       <c r="AP25" s="1">
         <v>16.026909</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.903000</v>
+        <v>984.90300000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.820000</v>
+        <v>-102.82</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>57707.930984</v>
+        <v>57707.930983999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.029981</v>
+        <v>16.029980999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.349000</v>
+        <v>996.34900000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.610000</v>
+        <v>-124.61</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>57719.260637</v>
+        <v>57719.260636999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.033128</v>
+        <v>16.033128000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.530000</v>
+        <v>-143.53</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>57730.179071</v>
+        <v>57730.179070999999</v>
       </c>
       <c r="BE25" s="1">
         <v>16.036161</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.010000</v>
+        <v>-229.01</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>57741.679276</v>
+        <v>57741.679276000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>16.039355</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.280000</v>
+        <v>1132.28</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.616000</v>
+        <v>-365.61599999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>57752.075918</v>
+        <v>57752.075918000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.042243</v>
+        <v>16.042242999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1265.290000</v>
+        <v>1265.29</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.658000</v>
+        <v>-575.65800000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>57763.205152</v>
+        <v>57763.205152000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.045335</v>
+        <v>16.045335000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1414.450000</v>
+        <v>1414.45</v>
       </c>
       <c r="BV25" s="1">
-        <v>-799.098000</v>
+        <v>-799.09799999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>57774.424161</v>
+        <v>57774.424161000003</v>
       </c>
       <c r="BY25" s="1">
         <v>16.048451</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1576.780000</v>
+        <v>1576.78</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1031.840000</v>
+        <v>-1031.8399999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>57787.706529</v>
+        <v>57787.706529000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.052141</v>
+        <v>16.052140999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1986.700000</v>
+        <v>1986.7</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1575.540000</v>
+        <v>-1575.54</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>57612.736310</v>
+        <v>57612.73631</v>
       </c>
       <c r="B26" s="1">
-        <v>16.003538</v>
+        <v>16.003537999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>905.707000</v>
+        <v>905.70699999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-192.626000</v>
+        <v>-192.626</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>57622.814523</v>
+        <v>57622.814523000001</v>
       </c>
       <c r="G26" s="1">
-        <v>16.006337</v>
+        <v>16.006336999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>922.577000</v>
+        <v>922.577</v>
       </c>
       <c r="I26" s="1">
-        <v>-163.006000</v>
+        <v>-163.006</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>57633.029627</v>
+        <v>57633.029627000004</v>
       </c>
       <c r="L26" s="1">
-        <v>16.009175</v>
+        <v>16.009174999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>942.907000</v>
+        <v>942.90700000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.158000</v>
+        <v>-117.158</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>57643.595442</v>
+        <v>57643.595441999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.012110</v>
+        <v>16.01211</v>
       </c>
       <c r="R26" s="1">
-        <v>949.307000</v>
+        <v>949.30700000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.246000</v>
+        <v>-102.246</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>57654.027036</v>
+        <v>57654.027035999999</v>
       </c>
       <c r="V26" s="1">
-        <v>16.015008</v>
+        <v>16.015008000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>955.765000</v>
+        <v>955.76499999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.063500</v>
+        <v>-89.063500000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>57664.910977</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.018031</v>
+        <v>16.018031000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.768000</v>
+        <v>962.76800000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.821900</v>
+        <v>-79.821899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>57675.355731</v>
+        <v>57675.355731000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.020932</v>
+        <v>16.020931999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.902000</v>
+        <v>967.90200000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.530000</v>
+        <v>-79.53</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>57686.263786</v>
+        <v>57686.263786000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.023962</v>
+        <v>16.023962000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.729000</v>
+        <v>975.72900000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.678200</v>
+        <v>-87.678200000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>57697.230790</v>
+        <v>57697.230790000001</v>
       </c>
       <c r="AP26" s="1">
         <v>16.027009</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.904000</v>
+        <v>984.904</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.806000</v>
+        <v>-102.806</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>57708.296535</v>
+        <v>57708.296535000001</v>
       </c>
       <c r="AU26" s="1">
         <v>16.030082</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.370000</v>
+        <v>996.37</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.591000</v>
+        <v>-124.59099999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>57719.930733</v>
+        <v>57719.930733000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.033314</v>
+        <v>16.033314000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.030000</v>
+        <v>1006.03</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.532000</v>
+        <v>-143.53200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>57730.618986</v>
+        <v>57730.618986000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.036283</v>
+        <v>16.036283000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.800000</v>
+        <v>1051.8</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.035000</v>
+        <v>-229.035</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>57742.148987</v>
@@ -6829,13 +7245,13 @@
         <v>16.039486</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.280000</v>
+        <v>1132.28</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.558000</v>
+        <v>-365.55799999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>57752.500989</v>
@@ -6844,60 +7260,61 @@
         <v>16.042361</v>
       </c>
       <c r="BP26" s="1">
-        <v>1265.300000</v>
+        <v>1265.3</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.613000</v>
+        <v>-575.61300000000006</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>57763.632735</v>
+        <v>57763.632734999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.045454</v>
+        <v>16.045453999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1414.390000</v>
+        <v>1414.39</v>
       </c>
       <c r="BV26" s="1">
-        <v>-799.178000</v>
+        <v>-799.178</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>57774.854192</v>
+        <v>57774.854191999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.048571</v>
+        <v>16.048570999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1576.710000</v>
+        <v>1576.71</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1031.880000</v>
+        <v>-1031.8800000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>57788.235295</v>
+        <v>57788.235294999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.052288</v>
+        <v>16.052288000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1985.850000</v>
+        <v>1985.85</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1573.990000</v>
+        <v>-1573.99</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>